--- a/Grupo II/MinutasGrupo2IHC/IHC_Indice-Acuerdos_G2.xlsx
+++ b/Grupo II/MinutasGrupo2IHC/IHC_Indice-Acuerdos_G2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>N° Acta</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>4_B</t>
+  </si>
+  <si>
+    <t>No Existe</t>
+  </si>
+  <si>
+    <t>Entrega de tablas cargadas con los datos correspondientes</t>
   </si>
 </sst>
 </file>
@@ -121,7 +127,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -157,11 +163,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -180,6 +238,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,14 +544,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.140625" customWidth="1"/>
-    <col min="2" max="2" width="50.7109375" customWidth="1"/>
+    <col min="2" max="2" width="56.28515625" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -598,7 +666,7 @@
         <v>41755</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:3" ht="29.25" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
@@ -643,18 +711,30 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="7"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
+      <c r="A17" s="2">
+        <v>7</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="8">
+        <v>41762</v>
+      </c>
     </row>
     <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="7"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
+      <c r="A18" s="9">
+        <v>8</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="10">
+        <v>41763</v>
+      </c>
     </row>
     <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="7"/>
-      <c r="B19" s="6"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1">

--- a/Grupo II/MinutasGrupo2IHC/IHC_Indice-Acuerdos_G2.xlsx
+++ b/Grupo II/MinutasGrupo2IHC/IHC_Indice-Acuerdos_G2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>N° Acta</t>
   </si>
@@ -76,13 +76,19 @@
   </si>
   <si>
     <t>Entrega de tablas cargadas con los datos correspondientes</t>
+  </si>
+  <si>
+    <t>Terminar el modulo requerido con la arquitectura solicitada por el jefe de proyecto (Oliver).</t>
+  </si>
+  <si>
+    <t>Entregar gráficos y presentación el día Domingo.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +115,27 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -219,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -239,13 +266,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -542,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:C27"/>
+  <dimension ref="A2:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -714,7 +751,7 @@
       <c r="A17" s="2">
         <v>7</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="8">
@@ -722,34 +759,46 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="9">
+      <c r="A18" s="13">
         <v>8</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="9">
         <v>41763</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="7"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="6"/>
+    <row r="19" spans="1:3" ht="32.25" customHeight="1">
+      <c r="A19" s="14">
+        <v>9</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="9">
+        <v>41765</v>
+      </c>
     </row>
     <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="7"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
+      <c r="A20" s="14">
+        <v>9</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="9">
+        <v>41765</v>
+      </c>
     </row>
     <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="7"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+      <c r="C21" s="16"/>
     </row>
     <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="7"/>
-      <c r="B22" s="6"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="6"/>
     </row>
     <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1">
@@ -776,6 +825,41 @@
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="6"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
